--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Uts2</t>
+  </si>
+  <si>
+    <t>Uts2r</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Uts2</t>
-  </si>
-  <si>
-    <t>Uts2r</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.496339</v>
+        <v>0.126357</v>
       </c>
       <c r="H2">
-        <v>1.489017</v>
+        <v>0.379071</v>
       </c>
       <c r="I2">
-        <v>0.3416605937896955</v>
+        <v>0.1226892855998496</v>
       </c>
       <c r="J2">
-        <v>0.3416605937896955</v>
+        <v>0.1226892855998496</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +561,22 @@
         <v>2.544274</v>
       </c>
       <c r="O2">
-        <v>0.9773546274332798</v>
+        <v>0.8068784050391488</v>
       </c>
       <c r="P2">
-        <v>0.9773546274332798</v>
+        <v>0.8068784050391488</v>
       </c>
       <c r="Q2">
-        <v>0.4209408042953334</v>
+        <v>0.107162276606</v>
       </c>
       <c r="R2">
-        <v>3.788467238658</v>
+        <v>0.964460489454</v>
       </c>
       <c r="S2">
-        <v>0.333923562351961</v>
+        <v>0.09899533508019923</v>
       </c>
       <c r="T2">
-        <v>0.333923562351961</v>
+        <v>0.09899533508019923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.496339</v>
+        <v>0.126357</v>
       </c>
       <c r="H3">
-        <v>1.489017</v>
+        <v>0.379071</v>
       </c>
       <c r="I3">
-        <v>0.3416605937896955</v>
+        <v>0.1226892855998496</v>
       </c>
       <c r="J3">
-        <v>0.3416605937896955</v>
+        <v>0.1226892855998496</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,90 +617,90 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.01965033333333334</v>
+        <v>0.1543526666666667</v>
       </c>
       <c r="N3">
-        <v>0.058951</v>
+        <v>0.463058</v>
       </c>
       <c r="O3">
-        <v>0.02264537256672013</v>
+        <v>0.1468519115789487</v>
       </c>
       <c r="P3">
-        <v>0.02264537256672013</v>
+        <v>0.1468519115789487</v>
       </c>
       <c r="Q3">
-        <v>0.009753226796333335</v>
+        <v>0.019503539902</v>
       </c>
       <c r="R3">
-        <v>0.08777904116700001</v>
+        <v>0.175531859118</v>
       </c>
       <c r="S3">
-        <v>0.007737031437734479</v>
+        <v>0.01801715612059349</v>
       </c>
       <c r="T3">
-        <v>0.00773703143773448</v>
+        <v>0.01801715612059349</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.324908</v>
+        <v>0.126357</v>
       </c>
       <c r="H4">
-        <v>0.9747239999999999</v>
+        <v>0.379071</v>
       </c>
       <c r="I4">
-        <v>0.2236541158503006</v>
+        <v>0.1226892855998496</v>
       </c>
       <c r="J4">
-        <v>0.2236541158503007</v>
+        <v>0.1226892855998496</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.8480913333333334</v>
+        <v>0.048633</v>
       </c>
       <c r="N4">
-        <v>2.544274</v>
+        <v>0.145899</v>
       </c>
       <c r="O4">
-        <v>0.9773546274332798</v>
+        <v>0.04626968338190256</v>
       </c>
       <c r="P4">
-        <v>0.9773546274332798</v>
+        <v>0.04626968338190256</v>
       </c>
       <c r="Q4">
-        <v>0.2755516589306667</v>
+        <v>0.006145119981</v>
       </c>
       <c r="R4">
-        <v>2.479964930376</v>
+        <v>0.055306079829</v>
       </c>
       <c r="S4">
-        <v>0.2185893850707902</v>
+        <v>0.005676794399056857</v>
       </c>
       <c r="T4">
-        <v>0.2185893850707902</v>
+        <v>0.005676794399056857</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,54 +729,54 @@
         <v>0.9747239999999999</v>
       </c>
       <c r="I5">
-        <v>0.2236541158503006</v>
+        <v>0.3154770246656372</v>
       </c>
       <c r="J5">
-        <v>0.2236541158503007</v>
+        <v>0.3154770246656372</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01965033333333334</v>
+        <v>0.8480913333333334</v>
       </c>
       <c r="N5">
-        <v>0.058951</v>
+        <v>2.544274</v>
       </c>
       <c r="O5">
-        <v>0.02264537256672013</v>
+        <v>0.8068784050391488</v>
       </c>
       <c r="P5">
-        <v>0.02264537256672013</v>
+        <v>0.8068784050391488</v>
       </c>
       <c r="Q5">
-        <v>0.006384550502666667</v>
+        <v>0.2755516589306667</v>
       </c>
       <c r="R5">
-        <v>0.057460954524</v>
+        <v>2.479964930376</v>
       </c>
       <c r="S5">
-        <v>0.005064730779510443</v>
+        <v>0.2545515984887056</v>
       </c>
       <c r="T5">
-        <v>0.005064730779510444</v>
+        <v>0.2545515984887056</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,60 +785,60 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4168506666666666</v>
+        <v>0.324908</v>
       </c>
       <c r="H6">
-        <v>1.250552</v>
+        <v>0.9747239999999999</v>
       </c>
       <c r="I6">
-        <v>0.286943895794938</v>
+        <v>0.3154770246656372</v>
       </c>
       <c r="J6">
-        <v>0.2869438957949381</v>
+        <v>0.3154770246656372</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.8480913333333334</v>
+        <v>0.1543526666666667</v>
       </c>
       <c r="N6">
-        <v>2.544274</v>
+        <v>0.463058</v>
       </c>
       <c r="O6">
-        <v>0.9773546274332798</v>
+        <v>0.1468519115789487</v>
       </c>
       <c r="P6">
-        <v>0.9773546274332798</v>
+        <v>0.1468519115789487</v>
       </c>
       <c r="Q6">
-        <v>0.3535274376942222</v>
+        <v>0.05015041622133333</v>
       </c>
       <c r="R6">
-        <v>3.181746939248</v>
+        <v>0.451353745992</v>
       </c>
       <c r="S6">
-        <v>0.2804459443689155</v>
+        <v>0.04632840413138797</v>
       </c>
       <c r="T6">
-        <v>0.2804459443689156</v>
+        <v>0.04632840413138797</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4168506666666666</v>
+        <v>0.324908</v>
       </c>
       <c r="H7">
-        <v>1.250552</v>
+        <v>0.9747239999999999</v>
       </c>
       <c r="I7">
-        <v>0.286943895794938</v>
+        <v>0.3154770246656372</v>
       </c>
       <c r="J7">
-        <v>0.2869438957949381</v>
+        <v>0.3154770246656372</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,60 +865,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.01965033333333334</v>
+        <v>0.048633</v>
       </c>
       <c r="N7">
-        <v>0.058951</v>
+        <v>0.145899</v>
       </c>
       <c r="O7">
-        <v>0.02264537256672013</v>
+        <v>0.04626968338190256</v>
       </c>
       <c r="P7">
-        <v>0.02264537256672013</v>
+        <v>0.04626968338190256</v>
       </c>
       <c r="Q7">
-        <v>0.008191254550222222</v>
+        <v>0.015801250764</v>
       </c>
       <c r="R7">
-        <v>0.073721290952</v>
+        <v>0.142211256876</v>
       </c>
       <c r="S7">
-        <v>0.006497951426022487</v>
+        <v>0.0145970220455437</v>
       </c>
       <c r="T7">
-        <v>0.006497951426022489</v>
+        <v>0.0145970220455437</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2146276666666667</v>
+        <v>0.5786293333333333</v>
       </c>
       <c r="H8">
-        <v>0.643883</v>
+        <v>1.735888</v>
       </c>
       <c r="I8">
-        <v>0.1477413945650657</v>
+        <v>0.5618336897345133</v>
       </c>
       <c r="J8">
-        <v>0.1477413945650658</v>
+        <v>0.5618336897345133</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,54 +933,54 @@
         <v>2.544274</v>
       </c>
       <c r="O8">
-        <v>0.9773546274332798</v>
+        <v>0.8068784050391488</v>
       </c>
       <c r="P8">
-        <v>0.9773546274332798</v>
+        <v>0.8068784050391488</v>
       </c>
       <c r="Q8">
-        <v>0.1820238639935556</v>
+        <v>0.4907305228124445</v>
       </c>
       <c r="R8">
-        <v>1.638214775942</v>
+        <v>4.416574705312001</v>
       </c>
       <c r="S8">
-        <v>0.144395735641613</v>
+        <v>0.4533314714702441</v>
       </c>
       <c r="T8">
-        <v>0.144395735641613</v>
+        <v>0.4533314714702441</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2146276666666667</v>
+        <v>0.5786293333333333</v>
       </c>
       <c r="H9">
-        <v>0.643883</v>
+        <v>1.735888</v>
       </c>
       <c r="I9">
-        <v>0.1477413945650657</v>
+        <v>0.5618336897345133</v>
       </c>
       <c r="J9">
-        <v>0.1477413945650658</v>
+        <v>0.5618336897345133</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,90 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01965033333333334</v>
+        <v>0.1543526666666667</v>
       </c>
       <c r="N9">
-        <v>0.058951</v>
+        <v>0.463058</v>
       </c>
       <c r="O9">
-        <v>0.02264537256672013</v>
+        <v>0.1468519115789487</v>
       </c>
       <c r="P9">
-        <v>0.02264537256672013</v>
+        <v>0.1468519115789487</v>
       </c>
       <c r="Q9">
-        <v>0.004217505192555556</v>
+        <v>0.08931298061155556</v>
       </c>
       <c r="R9">
-        <v>0.037957546733</v>
+        <v>0.803816825504</v>
       </c>
       <c r="S9">
-        <v>0.003345658923452714</v>
+        <v>0.08250635132696725</v>
       </c>
       <c r="T9">
-        <v>0.003345658923452715</v>
+        <v>0.08250635132696725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5786293333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.735888</v>
+      </c>
+      <c r="I10">
+        <v>0.5618336897345133</v>
+      </c>
+      <c r="J10">
+        <v>0.5618336897345133</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.048633</v>
+      </c>
+      <c r="N10">
+        <v>0.145899</v>
+      </c>
+      <c r="O10">
+        <v>0.04626968338190256</v>
+      </c>
+      <c r="P10">
+        <v>0.04626968338190256</v>
+      </c>
+      <c r="Q10">
+        <v>0.028140480368</v>
+      </c>
+      <c r="R10">
+        <v>0.253264323312</v>
+      </c>
+      <c r="S10">
+        <v>0.02599586693730201</v>
+      </c>
+      <c r="T10">
+        <v>0.02599586693730201</v>
       </c>
     </row>
   </sheetData>
